--- a/google_maps_data.xlsx
+++ b/google_maps_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,169 +468,161 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELSAN</t>
+          <t>Role Street</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>58 bis Rue La Boétie, 75008 Paris, France</t>
+          <t>Kılınçarslan, Park Sk. No:24, 07100 Muratpaşa/Antalya</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>elsan.care</t>
+          <t>rolestreethostel.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+33 1 58 56 16 80</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>28</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.5</v>
+          <t>(0242) 322 00 02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dentego</t>
+          <t>Pacco Boutique Hotel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19 Rue de Passy, 75016 Paris, France</t>
+          <t>Arapsuyu, 605. Sk. No 2, 07070 Konyaaltı/Antalya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dentego.fr</t>
+          <t>paccohotel.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+33 1 88 88 09 09</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>104</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>(0242) 255 50 80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Paris Dental Studios - MARAIS</t>
+          <t>Pearly Hotel &amp; Spa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28 Rue Meslay, 75003 Paris, France</t>
+          <t>Kuşkavağı, Akdeniz Blv. no:104, 07070 Konyaaltı/Antalya</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>parisdentalstudios.com</t>
+          <t>pearlyhotel.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+33 9 52 34 01 45</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>204</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.8</v>
+          <t>0539 516 07 60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Clinadent - Centre dentaire Paris 16 Victor Hugo</t>
+          <t>Titanic Beach Lara</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3 Pl. Victor Hugo, 75016 Paris, France</t>
+          <t>Güzeloba, Merkezi, Lara Turizm Yolu, 07230 Muratpaşa/Antalya</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>centre-dentaire-paris16.fr</t>
+          <t>titanic.com.tr</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+33 1 42 25 40 79</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>601</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4.6</v>
+          <t>(0242) 352 02 02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8,857</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dentego</t>
+          <t>Lara Beach Homes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>111 Av. du Général Leclerc, 75014 Paris, France</t>
+          <t>Güzeloba, 2382. Sk. No:12, 07610 Muratpaşa/Antalya</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>dentego.fr</t>
+          <t>larabeachhomes.com</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+33 1 40 43 41 00</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>307</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Place dentaire - Centre dentaire Paris Nation Saint Antoine</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>238 bis Rue du Faubourg Saint-Antoine, 75012 Paris, France</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>centre-dentaire-nation-saint-antoine.fr</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>+33 1 42 55 55 42</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>82</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.9</v>
+          <t>(0242) 352 02 66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
       </c>
     </row>
   </sheetData>
